--- a/DATA/Vocabularies/weapons.xlsx
+++ b/DATA/Vocabularies/weapons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Phrases</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Conditional Phrases</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -456,9 +461,10 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Weapon, Knife, Traditional weapons, knobkieries, kieries, spears</t>
-        </is>
-      </c>
+          <t>Weapon, Knife, Traditional weapons, knobkieries, kieries, spears, panga</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -471,7 +477,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(Throw OR Threw OR Attack(ed) ) AND ( Stones, rocks, bricks, brike, )</t>
+          <t xml:space="preserve">Throw, Threw, Attack, attacked </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stones, rocks, bricks, brike </t>
         </is>
       </c>
     </row>
@@ -486,9 +497,10 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gun, cannon, canon, shotgun, s/gun, rubber, stungrenade, stun grenade, stuntgrenade, tear gas, teargas</t>
-        </is>
-      </c>
+          <t>Gun, cannon, canon, shotgun, s/gun, rubber, stungrenade, stun grenade, stuntgrenade, tear gas, teargas, bullets, rubberbullets</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/weapons.xlsx
+++ b/DATA/Vocabularies/weapons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Conditional Phrases</t>
+          <t>Conditional_Phrases</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_phrases</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_conditional_phrases</t>
         </is>
       </c>
     </row>
@@ -461,10 +471,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Weapon, Knife, Traditional weapons, knobkieries, kieries, spears, panga</t>
+          <t>['Weapon', ' Knife', ' Traditional weapons', ' knobkieries', ' kieries', ' spears', ' panga']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['weapon', 'knife', 'traditional', 'weapon', 'knobkieries', 'kieries', 'spear', 'panga']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['weapon', 'knife', 'traditional', 'weapon', 'knobkieries', 'kieries', 'spear', 'panga']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -477,12 +497,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Throw, Threw, Attack, attacked </t>
+          <t>['Throw', ' Threw', ' Attack', ' attacked ']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stones, rocks, bricks, brike </t>
+          <t>[' Stones', ' rocks', ' bricks', ' brike ']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['throw', 'throw', 'attack', 'attack']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['throw', 'throw', 'attack', 'attack']</t>
         </is>
       </c>
     </row>
@@ -497,10 +527,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gun, cannon, canon, shotgun, s/gun, rubber, stungrenade, stun grenade, stuntgrenade, tear gas, teargas, bullets, rubberbullets</t>
+          <t>['Gun', ' cannon', ' canon', ' shotgun', ' s/gun', ' rubber', ' stungrenade', ' stun grenade', ' stuntgrenade', ' tear gas', ' teargas', ' bullets', ' rubberbullets']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['gun', 'cannon', 'canon', 'shotgun', 's/gun', 'rubber', 'stungrenade', 'stun', 'grenade', 'stuntgrenade', 'tear', 'gas', 'teargas', 'bullet', 'rubberbullets']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['gun', 'cannon', 'canon', 'shotgun', 's/gun', 'rubber', 'stungrenade', 'stun', 'grenade', 'stuntgrenade', 'tear', 'gas', 'teargas', 'bullet', 'rubberbullets']</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/weapons.xlsx
+++ b/DATA/Vocabularies/weapons.xlsx
@@ -480,11 +480,7 @@
           <t>['weapon', 'knife', 'traditional', 'weapon', 'knobkieries', 'kieries', 'spear', 'panga']</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['weapon', 'knife', 'traditional', 'weapon', 'knobkieries', 'kieries', 'spear', 'panga']</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -512,7 +508,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['throw', 'throw', 'attack', 'attack']</t>
+          <t>['stone', 'rock', 'brick', 'brike']</t>
         </is>
       </c>
     </row>
@@ -536,11 +532,7 @@
           <t>['gun', 'cannon', 'canon', 'shotgun', 's/gun', 'rubber', 'stungrenade', 'stun', 'grenade', 'stuntgrenade', 'tear', 'gas', 'teargas', 'bullet', 'rubberbullets']</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['gun', 'cannon', 'canon', 'shotgun', 's/gun', 'rubber', 'stungrenade', 'stun', 'grenade', 'stuntgrenade', 'tear', 'gas', 'teargas', 'bullet', 'rubberbullets']</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/weapons.xlsx
+++ b/DATA/Vocabularies/weapons.xlsx
@@ -471,13 +471,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Weapon', ' Knife', ' Traditional weapons', ' knobkieries', ' kieries', ' spears', ' panga']</t>
+          <t>['Weapon', 'Knife', 'Traditional weapons', 'knobkieries', 'kieries', 'spears', 'panga']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['weapon', 'knife', 'traditional', 'weapon', 'knobkieries', 'kieries', 'spear', 'panga']</t>
+          <t>['weapon,knife,traditional', 'weapons,knobkieries,kieries,spears,panga']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -493,22 +493,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['Throw', ' Threw', ' Attack', ' attacked ']</t>
+          <t>['Throw', 'Threw', 'Attack', 'attacked ']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[' Stones', ' rocks', ' bricks', ' brike ']</t>
+          <t>['Stones', 'rocks', 'bricks', 'brike ']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['throw', 'throw', 'attack', 'attack']</t>
+          <t>['throw,threw,attack,attacked']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['stone', 'rock', 'brick', 'brike']</t>
+          <t>['stones,rocks,bricks,brike']</t>
         </is>
       </c>
     </row>
@@ -523,13 +523,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['Gun', ' cannon', ' canon', ' shotgun', ' s/gun', ' rubber', ' stungrenade', ' stun grenade', ' stuntgrenade', ' tear gas', ' teargas', ' bullets', ' rubberbullets']</t>
+          <t>['Gun', 'cannon', 'canon', 'shotgun', 's/gun', 'rubber', 'stungrenade', 'stun grenade', 'stuntgrenade', 'tear gas', 'teargas', 'bullets', 'rubberbullets']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['gun', 'cannon', 'canon', 'shotgun', 's/gun', 'rubber', 'stungrenade', 'stun', 'grenade', 'stuntgrenade', 'tear', 'gas', 'teargas', 'bullet', 'rubberbullets']</t>
+          <t>['gun,cannon,canon,shotgun,s/gun,rubber,stungrenade,stun', 'grenade,stuntgrenade,tear', 'gas,teargas,bullets,rubberbullets']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>

--- a/DATA/Vocabularies/weapons.xlsx
+++ b/DATA/Vocabularies/weapons.xlsx
@@ -471,13 +471,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Weapon', 'Knife', 'Traditional weapons', 'knobkieries', 'kieries', 'spears', 'panga']</t>
+          <t>['Weapon', 'Knife', 'Traditional weapon', 'knobkierie', 'kierie', 'spear', 'panga']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['weapon,knife,traditional', 'weapons,knobkieries,kieries,spears,panga']</t>
+          <t>['weapon,knife,traditional', 'weapon,knobkierie,kierie,spear,panga']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -498,7 +498,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['Stones', 'rocks', 'bricks', 'brike ']</t>
+          <t>['Stone', 'rock', 'brick', 'brike ']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['stones,rocks,bricks,brike']</t>
+          <t>['stone,rock,brick,brike']</t>
         </is>
       </c>
     </row>
@@ -523,13 +523,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['Gun', 'cannon', 'canon', 'shotgun', 's/gun', 'rubber', 'stungrenade', 'stun grenade', 'stuntgrenade', 'tear gas', 'teargas', 'bullets', 'rubberbullets']</t>
+          <t>['Gun', 'cannon', 'canon', 'shotgun', 's/gun', 'rubber', 'stungrenade', 'stun grenade', 'stuntgrenade', 'tear gas', 'teargas', 'bullet', 'rubberbullet']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['gun,cannon,canon,shotgun,s/gun,rubber,stungrenade,stun', 'grenade,stuntgrenade,tear', 'gas,teargas,bullets,rubberbullets']</t>
+          <t>['gun,cannon,canon,shotgun,s/gun,rubber,stungrenade,stun', 'grenade,stuntgrenade,tear', 'gas,teargas,bullet,rubberbullet']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>

--- a/DATA/Vocabularies/weapons.xlsx
+++ b/DATA/Vocabularies/weapons.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,7 +484,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
